--- a/Requirements/Requirments_v7.xlsx
+++ b/Requirements/Requirments_v7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,11 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="523">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1575,7 +1574,40 @@
     <t>In Sales add/edit, freeze date of call. Only yesterday and today date should be displayed</t>
   </si>
   <si>
-    <t>In Stock report, add destination, invoive weight, qty, check in weight ,qty, truck number, truck type truck out time</t>
+    <t>In Stock report, add destination, invoive weight, qty, check in weight ,qty, truck number, truck type truck out time, e-way bill number</t>
+  </si>
+  <si>
+    <t>In warehouse in, check bay number for chennai, unit 3</t>
+  </si>
+  <si>
+    <t>In stock report, Loading and unloading time only</t>
+  </si>
+  <si>
+    <t>In stock report,move MAWB number to last column</t>
+  </si>
+  <si>
+    <t>In stock report,add e-wabill validity date next to ewaybill number</t>
+  </si>
+  <si>
+    <t>Check currency type coversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove eway bill, destination, MAWB number from dispatch add </t>
+  </si>
+  <si>
+    <t>In Pre-Gate-in, increase field size for truck number, driver name, number, DL number</t>
+  </si>
+  <si>
+    <t>In Gate-in, increase field size for invoice and PO number</t>
+  </si>
+  <si>
+    <t>In Goods-Receipt, check forklift and crane time &amp; charge calculations</t>
+  </si>
+  <si>
+    <t>In Customer call report, Customer name and comments (no of visits to this customer) to be displayed once customer type count is clicked for the selected sales executive</t>
+  </si>
+  <si>
+    <t>Tag Invoice against sale order or Sales executive</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2397,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="116">
     <dxf>
       <fill>
         <patternFill>
@@ -2400,6 +2432,44 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -3136,9 +3206,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3788,11 +3855,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1882642096"/>
-        <c:axId val="-1882634480"/>
+        <c:axId val="-1877399808"/>
+        <c:axId val="-1877399264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1882642096"/>
+        <c:axId val="-1877399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3835,7 +3902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1882634480"/>
+        <c:crossAx val="-1877399264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3843,7 +3910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1882634480"/>
+        <c:axId val="-1877399264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3894,7 +3961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1882642096"/>
+        <c:crossAx val="-1877399808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5968,11 +6035,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1689349552"/>
-        <c:axId val="-1689355536"/>
+        <c:axId val="-1877397088"/>
+        <c:axId val="-1877391104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1689349552"/>
+        <c:axId val="-1877397088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,7 +6082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1689355536"/>
+        <c:crossAx val="-1877391104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6023,7 +6090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1689355536"/>
+        <c:axId val="-1877391104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,7 +6127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1689349552"/>
+        <c:crossAx val="-1877397088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11205,7 +11272,7 @@
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="110">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -11927,13 +11994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F292" sqref="F292"/>
+      <selection pane="bottomRight" activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20897,12 +20964,364 @@
       <c r="G283" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H283" s="54"/>
-      <c r="I283" s="2"/>
+      <c r="H283" s="7">
+        <v>45138</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J283" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283" s="5"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C284" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D284" s="52">
+        <v>1</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F284" s="7">
+        <v>45138</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H284" s="54"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K283" s="5"/>
+      <c r="K284" s="5"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C285" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D285" s="52">
+        <v>1</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F285" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H285" s="54"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K285" s="5"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C286" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D286" s="52">
+        <v>1</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F286" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H286" s="54"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K286" s="5"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C287" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D287" s="52">
+        <v>1</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F287" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H287" s="54"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K287" s="5"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C288" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D288" s="52">
+        <v>1</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F288" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H288" s="54"/>
+      <c r="I288" s="2"/>
+      <c r="J288" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K288" s="5"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C289" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D289" s="52">
+        <v>1</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F289" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H289" s="54"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K289" s="5"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C290" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D290" s="52">
+        <v>1</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F290" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H290" s="54"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K290" s="5"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C291" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D291" s="52">
+        <v>1</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F291" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H291" s="54"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K291" s="5"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C292" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D292" s="52">
+        <v>1</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F292" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H292" s="54"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K292" s="5"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C293" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D293" s="52">
+        <v>1</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F293" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H293" s="54"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K293" s="5"/>
+    </row>
+    <row r="294" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C294" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="D294" s="52">
+        <v>1</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F294" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H294" s="54"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K294" s="5"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C295" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="D295" s="52">
+        <v>1</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F295" s="7">
+        <v>45139</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H295" s="54"/>
+      <c r="I295" s="2"/>
+      <c r="J295" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K295" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K280"/>
@@ -20967,7 +21386,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J282:J1048576 J269:J273 J257 J259:J265</xm:sqref>
+          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J269:J273 J257 J259:J265 J282:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="101" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">

--- a/Requirements/Requirments_v7.xlsx
+++ b/Requirements/Requirments_v7.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="524">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1608,6 +1608,10 @@
   </si>
   <si>
     <t>Tag Invoice against sale order or Sales executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (01-Aug-2023) Jose
+MAWB number retained. Will be disucssed further with Prakash</t>
   </si>
 </sst>
 </file>
@@ -2397,7 +2401,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="151">
     <dxf>
       <fill>
         <patternFill>
@@ -2432,44 +2436,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -3206,6 +3172,289 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3855,11 +4104,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1877399808"/>
-        <c:axId val="-1877399264"/>
+        <c:axId val="2048060512"/>
+        <c:axId val="2048063232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1877399808"/>
+        <c:axId val="2048060512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +4151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877399264"/>
+        <c:crossAx val="2048063232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3910,7 +4159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877399264"/>
+        <c:axId val="2048063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +4210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877399808"/>
+        <c:crossAx val="2048060512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6035,11 +6284,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="-1877397088"/>
-        <c:axId val="-1877391104"/>
+        <c:axId val="2048073568"/>
+        <c:axId val="2048066496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1877397088"/>
+        <c:axId val="2048073568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6082,7 +6331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877391104"/>
+        <c:crossAx val="2048066496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6090,7 +6339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1877391104"/>
+        <c:axId val="2048066496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,7 +6376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1877397088"/>
+        <c:crossAx val="2048073568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11272,7 +11521,7 @@
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -11994,13 +12243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C276" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F283" sqref="F283"/>
+      <selection pane="bottomRight" activeCell="H294" sqref="H294:J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21055,10 +21304,14 @@
       <c r="G286" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H286" s="54"/>
-      <c r="I286" s="2"/>
+      <c r="H286" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J286" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K286" s="5"/>
     </row>
@@ -21084,10 +21337,14 @@
       <c r="G287" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H287" s="54"/>
-      <c r="I287" s="2"/>
+      <c r="H287" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J287" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K287" s="5"/>
     </row>
@@ -21096,7 +21353,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C288" s="52" t="s">
         <v>146</v>
@@ -21120,12 +21377,12 @@
       </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C289" s="52" t="s">
         <v>146</v>
@@ -21142,19 +21399,25 @@
       <c r="G289" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H289" s="54"/>
-      <c r="I289" s="2"/>
+      <c r="H289" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J289" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K289" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="K289" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C290" s="52" t="s">
         <v>146</v>
@@ -21171,10 +21434,14 @@
       <c r="G290" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H290" s="54"/>
-      <c r="I290" s="2"/>
+      <c r="H290" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J290" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K290" s="5"/>
     </row>
@@ -21183,7 +21450,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C291" s="52" t="s">
         <v>146</v>
@@ -21200,10 +21467,14 @@
       <c r="G291" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H291" s="54"/>
-      <c r="I291" s="2"/>
+      <c r="H291" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J291" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K291" s="5"/>
     </row>
@@ -21212,7 +21483,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C292" s="52" t="s">
         <v>146</v>
@@ -21236,21 +21507,21 @@
       </c>
       <c r="K292" s="5"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C293" s="52" t="s">
-        <v>146</v>
+        <v>457</v>
       </c>
       <c r="D293" s="52">
         <v>1</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F293" s="7">
         <v>45139</v>
@@ -21265,12 +21536,12 @@
       </c>
       <c r="K293" s="5"/>
     </row>
-    <row r="294" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C294" s="52" t="s">
         <v>457</v>
@@ -21287,41 +21558,16 @@
       <c r="G294" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H294" s="54"/>
-      <c r="I294" s="2"/>
+      <c r="H294" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J294" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K294" s="5"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
-        <v>294</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C295" s="52" t="s">
-        <v>457</v>
-      </c>
-      <c r="D295" s="52">
-        <v>1</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F295" s="7">
-        <v>45139</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H295" s="54"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K295" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K280"/>
@@ -21331,7 +21577,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
+          <x14:cfRule type="containsText" priority="126" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J1)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21342,7 +21588,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
+          <x14:cfRule type="containsText" priority="127" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J1)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21353,7 +21599,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
+          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J1)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21364,7 +21610,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
+          <x14:cfRule type="containsText" priority="129" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J1)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21375,7 +21621,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
+          <x14:cfRule type="containsText" priority="130" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J1)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21386,10 +21632,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J269:J273 J257 J259:J265 J282:J1048576</xm:sqref>
+          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J269:J273 J257 J259:J265 J282:J288 J292:J293 J295:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
+          <x14:cfRule type="containsText" priority="121" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J191)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21400,7 +21646,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{2659F180-45C4-4EEE-A3F0-1022689BB1E9}">
+          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{2659F180-45C4-4EEE-A3F0-1022689BB1E9}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J191)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21411,7 +21657,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{DDDE62F9-7798-47BF-A4BA-D6C32EDFA488}">
+          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{DDDE62F9-7798-47BF-A4BA-D6C32EDFA488}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J191)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21422,7 +21668,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{BF09192F-5432-4607-9692-1F7F86FBB0AD}">
+          <x14:cfRule type="containsText" priority="124" operator="containsText" id="{BF09192F-5432-4607-9692-1F7F86FBB0AD}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J191)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21433,7 +21679,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{545D3F34-0DB8-4592-83E9-8456F5CBFCD4}">
+          <x14:cfRule type="containsText" priority="125" operator="containsText" id="{545D3F34-0DB8-4592-83E9-8456F5CBFCD4}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J191)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21447,7 +21693,7 @@
           <xm:sqref>J191</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{77D5091E-7FC1-44EB-A2E0-A2C9BFE89B0A}">
+          <x14:cfRule type="containsText" priority="116" operator="containsText" id="{77D5091E-7FC1-44EB-A2E0-A2C9BFE89B0A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J239)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21458,7 +21704,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{99C6401E-4A5E-4390-87DF-F2D74820E080}">
+          <x14:cfRule type="containsText" priority="117" operator="containsText" id="{99C6401E-4A5E-4390-87DF-F2D74820E080}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J239)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21469,7 +21715,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{BB681EE2-6955-4730-8D34-88C55623D70B}">
+          <x14:cfRule type="containsText" priority="118" operator="containsText" id="{BB681EE2-6955-4730-8D34-88C55623D70B}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J239)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21480,7 +21726,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{133521A3-AB59-4A23-8F21-29B654806183}">
+          <x14:cfRule type="containsText" priority="119" operator="containsText" id="{133521A3-AB59-4A23-8F21-29B654806183}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J239)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21491,7 +21737,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{9FE4BF21-895B-470B-A846-97AC86996AFC}">
+          <x14:cfRule type="containsText" priority="120" operator="containsText" id="{9FE4BF21-895B-470B-A846-97AC86996AFC}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J239)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21505,7 +21751,7 @@
           <xm:sqref>J239</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{56682B13-B008-4E65-AEDD-5C775178D6B6}">
+          <x14:cfRule type="containsText" priority="111" operator="containsText" id="{56682B13-B008-4E65-AEDD-5C775178D6B6}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J59)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21516,7 +21762,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{5792A322-E44B-4F1E-9B56-5F09EB3D749E}">
+          <x14:cfRule type="containsText" priority="112" operator="containsText" id="{5792A322-E44B-4F1E-9B56-5F09EB3D749E}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J59)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21527,7 +21773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{04CB1850-99E9-4D72-AD9B-A0E7132E68A7}">
+          <x14:cfRule type="containsText" priority="113" operator="containsText" id="{04CB1850-99E9-4D72-AD9B-A0E7132E68A7}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J59)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21538,7 +21784,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{6B86DADF-E089-4949-B9DC-C2709822F79C}">
+          <x14:cfRule type="containsText" priority="114" operator="containsText" id="{6B86DADF-E089-4949-B9DC-C2709822F79C}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J59)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21549,7 +21795,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{50B16563-F823-4DA9-BC45-5982EA08CE8A}">
+          <x14:cfRule type="containsText" priority="115" operator="containsText" id="{50B16563-F823-4DA9-BC45-5982EA08CE8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J59)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21563,7 +21809,7 @@
           <xm:sqref>J59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{5E97BD53-8796-4FD1-94BE-57B4FCB0997A}">
+          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{5E97BD53-8796-4FD1-94BE-57B4FCB0997A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J62)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21574,7 +21820,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{A55CA617-CC1A-4D9E-90EF-E4E681D55EE4}">
+          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{A55CA617-CC1A-4D9E-90EF-E4E681D55EE4}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J62)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21585,7 +21831,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{9EF76090-9CE4-48C9-9DB9-FFFBE637F20A}">
+          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{9EF76090-9CE4-48C9-9DB9-FFFBE637F20A}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J62)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21596,7 +21842,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{2A7C95FD-5A49-4CAD-940D-2F7A489149EC}">
+          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{2A7C95FD-5A49-4CAD-940D-2F7A489149EC}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J62)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21607,7 +21853,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="90" operator="containsText" id="{B69BB39A-2C4A-4FA4-9F68-88673B44B228}">
+          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{B69BB39A-2C4A-4FA4-9F68-88673B44B228}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J62)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21621,7 +21867,7 @@
           <xm:sqref>J62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{1F2CD909-1699-4AB0-8FC5-F860F0A0CE21}">
+          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{1F2CD909-1699-4AB0-8FC5-F860F0A0CE21}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J64)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21632,7 +21878,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{6485C17D-0D36-49D9-824C-5EED64C68F9B}">
+          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{6485C17D-0D36-49D9-824C-5EED64C68F9B}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J64)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21643,7 +21889,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{95FBE05E-23A8-4EE9-88C3-AB695CBC7932}">
+          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{95FBE05E-23A8-4EE9-88C3-AB695CBC7932}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J64)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21654,7 +21900,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{493B3732-9742-4C46-8E12-796966F4B6C3}">
+          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{493B3732-9742-4C46-8E12-796966F4B6C3}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J64)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21665,7 +21911,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{7DE27319-DCEF-4157-9370-E253A751D383}">
+          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{7DE27319-DCEF-4157-9370-E253A751D383}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J64)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21679,7 +21925,7 @@
           <xm:sqref>J64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{0C3206E5-C963-4F31-8384-8B911C42FB8A}">
+          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{0C3206E5-C963-4F31-8384-8B911C42FB8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J65)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21690,7 +21936,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{B50CA9A6-1591-43DD-BB06-4268802FEC6F}">
+          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{B50CA9A6-1591-43DD-BB06-4268802FEC6F}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J65)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21701,7 +21947,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{BCA1BE13-582D-428B-B3AD-90FD42542E9C}">
+          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{BCA1BE13-582D-428B-B3AD-90FD42542E9C}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J65)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21712,7 +21958,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{0AF4353A-EC7F-4094-8E37-6176E6B0D179}">
+          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{0AF4353A-EC7F-4094-8E37-6176E6B0D179}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J65)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21723,7 +21969,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{FE021F5E-88CF-4884-AE41-4B1DCE49B1DD}">
+          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{FE021F5E-88CF-4884-AE41-4B1DCE49B1DD}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J65)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21737,7 +21983,7 @@
           <xm:sqref>J65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{72685E7F-5EE0-454C-B3EF-E261AD457F4C}">
+          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{72685E7F-5EE0-454C-B3EF-E261AD457F4C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J77)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21748,7 +21994,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{B131B030-F95A-4FAD-8F6D-545DCBAE0A83}">
+          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{B131B030-F95A-4FAD-8F6D-545DCBAE0A83}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J77)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21759,7 +22005,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{355C84F0-1C4D-471D-AFF3-810D786A3F1F}">
+          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{355C84F0-1C4D-471D-AFF3-810D786A3F1F}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J77)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21770,7 +22016,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{81554C70-17D8-4253-A252-DF35CC302ECD}">
+          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{81554C70-17D8-4253-A252-DF35CC302ECD}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J77)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21781,7 +22027,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{D533391D-755B-4529-834E-380D2E25F04F}">
+          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{D533391D-755B-4529-834E-380D2E25F04F}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J77)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21795,7 +22041,7 @@
           <xm:sqref>J77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{2C71140D-F7E9-459C-B3F1-6B8CB03BE55C}">
+          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{2C71140D-F7E9-459C-B3F1-6B8CB03BE55C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J179)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21806,7 +22052,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{E2583294-4706-4FA1-A126-EC77C5DB4C8A}">
+          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{E2583294-4706-4FA1-A126-EC77C5DB4C8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J179)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21817,7 +22063,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{9E375585-5BAC-4D41-8741-61FE12C5541D}">
+          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{9E375585-5BAC-4D41-8741-61FE12C5541D}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J179)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21828,7 +22074,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{F4FC6566-B687-4E1B-8C42-22BAC7FB1C2B}">
+          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{F4FC6566-B687-4E1B-8C42-22BAC7FB1C2B}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J179)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21839,7 +22085,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{35B02530-6634-4162-8BEE-9FDDD3EA7061}">
+          <x14:cfRule type="containsText" priority="90" operator="containsText" id="{35B02530-6634-4162-8BEE-9FDDD3EA7061}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J179)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21853,7 +22099,7 @@
           <xm:sqref>J179</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{F34F41D6-11E1-4C8D-BB94-E8572EC0A75C}">
+          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{F34F41D6-11E1-4C8D-BB94-E8572EC0A75C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J180)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21864,7 +22110,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{83ABFEBD-0A12-4E48-98D9-B0CD2E649E4A}">
+          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{83ABFEBD-0A12-4E48-98D9-B0CD2E649E4A}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J180)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21875,7 +22121,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{5FFEE1A2-6ECF-4FC4-8BB3-5798240DA754}">
+          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{5FFEE1A2-6ECF-4FC4-8BB3-5798240DA754}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J180)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21886,7 +22132,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{EE159CF1-9DEF-4207-B551-F147100B6D52}">
+          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{EE159CF1-9DEF-4207-B551-F147100B6D52}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J180)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21897,7 +22143,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{CCD9BA24-426D-41A8-A199-C43A44404057}">
+          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{CCD9BA24-426D-41A8-A199-C43A44404057}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J180)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21911,7 +22157,7 @@
           <xm:sqref>J180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{5A7042A6-ED0B-4607-9775-FCE263A5A0F9}">
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{5A7042A6-ED0B-4607-9775-FCE263A5A0F9}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J181)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21922,7 +22168,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{8CC7379D-909F-4862-91FF-CCBCC2BDC772}">
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{8CC7379D-909F-4862-91FF-CCBCC2BDC772}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J181)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21933,7 +22179,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{03A89AAE-09A9-41B3-A6F3-07B7DC468ED1}">
+          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{03A89AAE-09A9-41B3-A6F3-07B7DC468ED1}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J181)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21944,7 +22190,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{18BE2F67-3DE1-495D-BC3D-326E43A12DE2}">
+          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{18BE2F67-3DE1-495D-BC3D-326E43A12DE2}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J181)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21955,7 +22201,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{A07D318C-9938-410F-9720-D41B201AAC64}">
+          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{A07D318C-9938-410F-9720-D41B201AAC64}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J181)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21969,7 +22215,7 @@
           <xm:sqref>J181</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{5B1F00FD-41E1-4F52-9014-636E929D2768}">
+          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{5B1F00FD-41E1-4F52-9014-636E929D2768}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J182)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21980,7 +22226,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{F456B488-E815-4983-81D9-EB661E97C31B}">
+          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{F456B488-E815-4983-81D9-EB661E97C31B}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J182)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21991,7 +22237,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{26405982-181D-4FA6-B51E-F578BFC4A177}">
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{26405982-181D-4FA6-B51E-F578BFC4A177}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J182)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22002,7 +22248,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{8CA4EA85-1694-4A46-88D1-B93C3E8C9399}">
+          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{8CA4EA85-1694-4A46-88D1-B93C3E8C9399}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J182)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22013,7 +22259,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{26E6FFE5-0973-4E20-A137-3E58F69FA305}">
+          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{26E6FFE5-0973-4E20-A137-3E58F69FA305}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J182)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22027,7 +22273,7 @@
           <xm:sqref>J182</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{2ACDE9A9-BC69-4C3F-ABA3-74A4D70E52A9}">
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{2ACDE9A9-BC69-4C3F-ABA3-74A4D70E52A9}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J183)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22038,7 +22284,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{51177FCF-4E46-44A8-916C-5057BAA2FA87}">
+          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{51177FCF-4E46-44A8-916C-5057BAA2FA87}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J183)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22049,7 +22295,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{DC092126-EAEA-414E-A872-11B9A9ED4800}">
+          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{DC092126-EAEA-414E-A872-11B9A9ED4800}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J183)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22060,7 +22306,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{333B0107-71C9-4365-85E4-58BD90E906F8}">
+          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{333B0107-71C9-4365-85E4-58BD90E906F8}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J183)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22071,7 +22317,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{FDA14A81-9A1D-46CD-845C-E8C122C88D99}">
+          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{FDA14A81-9A1D-46CD-845C-E8C122C88D99}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J183)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22085,7 +22331,7 @@
           <xm:sqref>J183</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{B40AACCB-FAD1-4F6E-9FF0-A45EA0DFAEAD}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{B40AACCB-FAD1-4F6E-9FF0-A45EA0DFAEAD}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J184)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22096,7 +22342,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{72EECDE9-65BD-42D8-A950-FFCE02F551E0}">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{72EECDE9-65BD-42D8-A950-FFCE02F551E0}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J184)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22107,7 +22353,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{AFDB935C-813C-4D91-A333-892F316DFDB6}">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{AFDB935C-813C-4D91-A333-892F316DFDB6}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J184)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22118,7 +22364,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{6287DD57-26DB-4418-8ECF-B1912C432ABB}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{6287DD57-26DB-4418-8ECF-B1912C432ABB}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J184)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22129,7 +22375,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{20FF4EC4-07B5-4DA9-B61E-1E8C751E7D77}">
+          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{20FF4EC4-07B5-4DA9-B61E-1E8C751E7D77}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J184)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22143,7 +22389,7 @@
           <xm:sqref>J184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{E34B97D3-E2E8-472E-AECD-4AB8AED2E9EB}">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{E34B97D3-E2E8-472E-AECD-4AB8AED2E9EB}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J185)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22154,7 +22400,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{B5187EF5-CB4E-4731-BEBB-BB92E70E27DA}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{B5187EF5-CB4E-4731-BEBB-BB92E70E27DA}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J185)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22165,7 +22411,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{29E860D1-A419-485D-853D-0B7F5663B720}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{29E860D1-A419-485D-853D-0B7F5663B720}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J185)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22176,7 +22422,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{EADD216A-AA60-4057-8BD7-520FA160EF1F}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{EADD216A-AA60-4057-8BD7-520FA160EF1F}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J185)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22187,7 +22433,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{88E217A4-6370-48D8-B285-459DA339DFCF}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{88E217A4-6370-48D8-B285-459DA339DFCF}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J185)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22201,7 +22447,7 @@
           <xm:sqref>J185</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{E3E70C7C-E1D7-4E40-8B4F-83A495CB91C1}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{E3E70C7C-E1D7-4E40-8B4F-83A495CB91C1}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J256)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22212,7 +22458,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{3390301F-DCBC-42E2-8000-F9E8A4B5340C}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{3390301F-DCBC-42E2-8000-F9E8A4B5340C}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J256)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22223,7 +22469,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{17C1CF5E-858D-42DA-8DC8-365510A51D37}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{17C1CF5E-858D-42DA-8DC8-365510A51D37}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J256)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22234,7 +22480,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{7868AD8A-70F7-4E9B-8842-296F267AD41D}">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{7868AD8A-70F7-4E9B-8842-296F267AD41D}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J256)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22245,7 +22491,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{3DE060A9-D3E0-4186-B24F-A8A92119A38B}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{3DE060A9-D3E0-4186-B24F-A8A92119A38B}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J256)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22259,7 +22505,7 @@
           <xm:sqref>J256</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{4B58FE9F-BD55-4135-A690-F165AD9794FE}">
+          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{4B58FE9F-BD55-4135-A690-F165AD9794FE}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J267)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22270,7 +22516,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{64386027-7875-4801-8C57-8C935259F293}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{64386027-7875-4801-8C57-8C935259F293}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J267)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22281,7 +22527,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{6D30A87E-37FD-4FC0-9F40-A2AECB416A25}">
+          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{6D30A87E-37FD-4FC0-9F40-A2AECB416A25}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J267)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22292,7 +22538,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{E5D459BC-E4EF-4533-843F-7EEED35D0540}">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{E5D459BC-E4EF-4533-843F-7EEED35D0540}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J267)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22303,7 +22549,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{0A5D5078-7B95-4AB8-BBA5-E67EB3A6BD13}">
+          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{0A5D5078-7B95-4AB8-BBA5-E67EB3A6BD13}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J267)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22317,7 +22563,7 @@
           <xm:sqref>J267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{BFCC58BC-086C-48CE-BAB6-77D138AE7028}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{BFCC58BC-086C-48CE-BAB6-77D138AE7028}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J268)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22328,7 +22574,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{AD462932-9ED3-4855-AD15-CD7C6A847A49}">
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{AD462932-9ED3-4855-AD15-CD7C6A847A49}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J268)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22339,7 +22585,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{B07A1A5A-1DA1-4294-800A-B41A04264633}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{B07A1A5A-1DA1-4294-800A-B41A04264633}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J268)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22350,7 +22596,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{2290D466-5BA9-4AC5-A909-E0E5B0F0D0AF}">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{2290D466-5BA9-4AC5-A909-E0E5B0F0D0AF}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J268)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22361,7 +22607,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{80B7E460-5C68-4D5B-BC44-3CAFC5EED5AC}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{80B7E460-5C68-4D5B-BC44-3CAFC5EED5AC}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J268)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22375,7 +22621,7 @@
           <xm:sqref>J268</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{8CEB8848-47EF-455A-A69E-93E7EB8F8044}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{8CEB8848-47EF-455A-A69E-93E7EB8F8044}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J274)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22386,7 +22632,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{38306A60-BC95-409C-AE99-ED407EB72925}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{38306A60-BC95-409C-AE99-ED407EB72925}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J274)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22397,7 +22643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{C1E7CC6A-0634-47D0-9147-43BD225BB013}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{C1E7CC6A-0634-47D0-9147-43BD225BB013}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J274)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22408,7 +22654,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{AD7C7C0B-0EC2-4AC5-A3DA-A7BD651A1077}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{AD7C7C0B-0EC2-4AC5-A3DA-A7BD651A1077}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J274)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22419,7 +22665,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{DAB9052F-7145-452E-9AF8-0ECB95FB1D88}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{DAB9052F-7145-452E-9AF8-0ECB95FB1D88}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J274)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22433,7 +22679,7 @@
           <xm:sqref>J274:J281</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{D10F93B0-51A1-4595-A962-E4FFA9DB81E3}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{D10F93B0-51A1-4595-A962-E4FFA9DB81E3}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J258)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22444,7 +22690,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{174D3576-9014-471E-B7AC-FED08227CF1D}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{174D3576-9014-471E-B7AC-FED08227CF1D}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J258)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22455,7 +22701,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{9E0E7A0C-048D-439E-AF37-F2B494F7F90E}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{9E0E7A0C-048D-439E-AF37-F2B494F7F90E}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J258)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22466,7 +22712,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{80D0775E-96C6-416E-8356-7E0A86F93030}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{80D0775E-96C6-416E-8356-7E0A86F93030}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J258)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22477,7 +22723,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{7552F517-6FF5-4256-81ED-EFCB80E72E82}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{7552F517-6FF5-4256-81ED-EFCB80E72E82}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J258)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22491,7 +22737,7 @@
           <xm:sqref>J258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{DED53B32-E144-4EF4-924C-C08A5DE3F2D6}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{DED53B32-E144-4EF4-924C-C08A5DE3F2D6}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J266)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22502,7 +22748,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{8AB89D66-20C0-4A41-8E96-09409139C3AB}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{8AB89D66-20C0-4A41-8E96-09409139C3AB}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J266)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22513,7 +22759,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{480F2372-9B95-469C-B38E-DC3A3BD22969}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{480F2372-9B95-469C-B38E-DC3A3BD22969}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J266)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22524,7 +22770,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D1DCA30B-274F-4D9A-8A7A-E208459D46DA}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{D1DCA30B-274F-4D9A-8A7A-E208459D46DA}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J266)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22535,7 +22781,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{5A030696-30A7-4E44-ADEB-46C02EF07172}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{5A030696-30A7-4E44-ADEB-46C02EF07172}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J266)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22547,6 +22793,238 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>J266</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{4467D124-B263-45B0-AC91-EE4ACEFE85F6}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J289)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{39C63992-B268-4FF1-9494-662DEE6CFEC6}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J289)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{4A89DADA-7950-4B78-A584-1DEBECD74C92}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J289)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{DD08D371-582D-4E1C-B5B5-8AEF11728CC9}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J289)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{44C708BB-15E9-4015-BE29-F78F1E2B76BF}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J289)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J289</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{D937FB02-CFA3-478F-9D42-C8483AE56271}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J290)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{CC12CB59-35C5-424B-AF4F-549099D308AA}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J290)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{4704C1A1-5C2A-4EFF-A173-02908C2A7257}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J290)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{04F2B514-0B4E-4CDE-B959-32DD800FCF9D}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J290)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{9FE0C3FA-C5BF-44B4-9858-1513569F7BDD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J290)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J290</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{70B86FD6-96AB-4006-B5DF-BF4DD6D0C327}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J291)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2FC1CDE6-F267-45A4-82A5-A2950C93C1CC}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J291)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{4D283238-EAB7-4FE9-A367-BD9708925525}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J291)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{1CEFB139-C552-42B6-AF32-F2BD539ADE23}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J291)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{E7F3DAB5-B3BE-41B2-A7F8-698D0EF81745}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J291)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J291</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FED5DDF9-194E-4A41-BCE1-25A91D36ADFD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J294)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2965B957-A623-4392-98E4-D71422475E4C}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J294)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2B9182E3-F4DC-44C1-AA3E-F54AABCE12EF}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J294)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{94FB4D79-5463-4E74-868B-B630FA610AAB}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J294)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{1CBE7F39-141B-4E4E-8BE6-49FD257866CB}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J294)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J294</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Requirements/Requirments_v7.xlsx
+++ b/Requirements/Requirments_v7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Transport_Business_model" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$1:$K$294</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="524">
   <si>
     <t>Capture Commodity details - Add in Gate-In Form (Change Stock Type to Commodity Type) (Garments, Auto Parts, Leather Garments, Shoe Uppers, Finish Leather, Console, Electrical &amp; Electronics) - Jose (Venkat to send commodity details list)</t>
   </si>
@@ -1568,9 +1568,6 @@
     <t>WMS-PBI</t>
   </si>
   <si>
-    <t>In Sales list, add "Join Call", "Business Won"</t>
-  </si>
-  <si>
     <t>In Sales add/edit, freeze date of call. Only yesterday and today date should be displayed</t>
   </si>
   <si>
@@ -1612,6 +1609,9 @@
   <si>
     <t xml:space="preserve"> (01-Aug-2023) Jose
 MAWB number retained. Will be disucssed further with Prakash</t>
+  </si>
+  <si>
+    <t>In Sales list, add "Joint Call", "Business Won"</t>
   </si>
 </sst>
 </file>
@@ -2401,41 +2401,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="136">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -3382,79 +3350,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4104,11 +3999,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="2048060512"/>
-        <c:axId val="2048063232"/>
+        <c:axId val="1078223856"/>
+        <c:axId val="1078221136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048060512"/>
+        <c:axId val="1078223856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048063232"/>
+        <c:crossAx val="1078221136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4159,7 +4054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048063232"/>
+        <c:axId val="1078221136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048060512"/>
+        <c:crossAx val="1078223856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6284,11 +6179,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="2048073568"/>
-        <c:axId val="2048066496"/>
+        <c:axId val="1078222768"/>
+        <c:axId val="1078220592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048073568"/>
+        <c:axId val="1078222768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6331,7 +6226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048066496"/>
+        <c:crossAx val="1078220592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6339,7 +6234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048066496"/>
+        <c:axId val="1078220592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6376,7 +6271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2048073568"/>
+        <c:crossAx val="1078222768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11521,7 +11416,7 @@
     <dataField name="Count of Sl No" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="150">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
@@ -12246,28 +12141,28 @@
   <dimension ref="A1:K294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H294" sqref="H294:J294"/>
+      <selection pane="bottomRight" activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="80.44140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="80.42578125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="51"/>
+    <col min="6" max="7" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -12302,7 +12197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12335,7 +12230,7 @@
       </c>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12366,7 +12261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12399,7 +12294,7 @@
       </c>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12430,7 +12325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12463,7 +12358,7 @@
       </c>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12494,7 +12389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -12527,7 +12422,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -12560,7 +12455,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -12589,7 +12484,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12618,7 +12513,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12647,7 +12542,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -12680,7 +12575,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -12711,7 +12606,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -12740,7 +12635,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -12773,7 +12668,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -12802,7 +12697,7 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -12835,7 +12730,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -12868,7 +12763,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -12901,7 +12796,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12930,7 +12825,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -12959,7 +12854,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -12988,7 +12883,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13021,7 +12916,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -13052,7 +12947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -13085,7 +12980,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -13118,7 +13013,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -13149,7 +13044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -13182,7 +13077,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -13215,7 +13110,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -13248,7 +13143,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -13283,7 +13178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -13316,7 +13211,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13349,7 +13244,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -13382,7 +13277,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -13415,7 +13310,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -13448,7 +13343,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -13481,7 +13376,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -13516,7 +13411,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -13547,7 +13442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -13578,7 +13473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -13607,7 +13502,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -13636,7 +13531,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -13665,7 +13560,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -13694,7 +13589,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -13723,7 +13618,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -13752,7 +13647,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -13781,7 +13676,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -13810,7 +13705,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -13841,7 +13736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -13872,7 +13767,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -13903,7 +13798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -13932,7 +13827,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -13961,7 +13856,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13990,7 +13885,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -14019,7 +13914,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -14052,7 +13947,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -14081,7 +13976,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -14114,7 +14009,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -14147,7 +14042,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -14182,7 +14077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14215,7 +14110,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14246,7 +14141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14275,7 +14170,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14308,7 +14203,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14337,7 +14232,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -14370,7 +14265,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -14403,7 +14298,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -14434,7 +14329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -14463,7 +14358,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -14492,7 +14387,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -14521,7 +14416,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -14552,7 +14447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -14585,7 +14480,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -14618,7 +14513,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -14651,7 +14546,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -14684,7 +14579,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -14717,7 +14612,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -14750,7 +14645,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -14783,7 +14678,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -14816,7 +14711,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -14847,7 +14742,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -14882,7 +14777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -14917,7 +14812,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -14948,7 +14843,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -14979,7 +14874,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -15010,7 +14905,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -15039,7 +14934,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -15072,7 +14967,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -15101,7 +14996,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -15130,7 +15025,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -15163,7 +15058,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -15196,7 +15091,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -15225,7 +15120,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -15254,7 +15149,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -15283,7 +15178,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -15312,7 +15207,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -15341,7 +15236,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -15374,7 +15269,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -15403,7 +15298,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -15436,7 +15331,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -15465,7 +15360,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -15494,7 +15389,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -15523,7 +15418,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -15552,7 +15447,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -15581,7 +15476,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -15610,7 +15505,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -15639,7 +15534,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -15668,7 +15563,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -15697,7 +15592,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -15726,7 +15621,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -15755,7 +15650,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -15784,7 +15679,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -15813,7 +15708,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -15842,7 +15737,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -15871,7 +15766,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -15900,7 +15795,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -15929,7 +15824,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -15958,7 +15853,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -15991,7 +15886,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -16024,7 +15919,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -16057,7 +15952,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -16086,7 +15981,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -16117,7 +16012,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -16150,7 +16045,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -16183,7 +16078,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -16216,7 +16111,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -16249,7 +16144,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -16282,7 +16177,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -16315,7 +16210,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -16348,7 +16243,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -16383,7 +16278,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -16414,7 +16309,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -16445,7 +16340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -16478,7 +16373,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -16511,7 +16406,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -16544,7 +16439,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -16577,7 +16472,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -16608,7 +16503,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -16641,7 +16536,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -16674,7 +16569,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -16709,7 +16604,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -16744,7 +16639,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -16773,7 +16668,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -16806,7 +16701,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -16837,7 +16732,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -16870,7 +16765,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -16903,7 +16798,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -16936,7 +16831,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -16969,7 +16864,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -17002,7 +16897,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -17035,7 +16930,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -17068,7 +16963,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -17101,7 +16996,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -17134,7 +17029,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -17165,7 +17060,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -17198,7 +17093,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -17231,7 +17126,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -17264,7 +17159,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -17297,7 +17192,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -17330,7 +17225,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -17363,7 +17258,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -17396,7 +17291,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -17429,7 +17324,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -17462,7 +17357,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -17495,7 +17390,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -17528,7 +17423,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -17563,7 +17458,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -17596,7 +17491,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -17629,7 +17524,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -17662,7 +17557,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -17693,7 +17588,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -17722,7 +17617,7 @@
       </c>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -17755,7 +17650,7 @@
       </c>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -17788,7 +17683,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -17821,7 +17716,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -17850,7 +17745,7 @@
       </c>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -17883,7 +17778,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -17916,7 +17811,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -17949,7 +17844,7 @@
       </c>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -17982,7 +17877,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -18015,7 +17910,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -18048,7 +17943,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -18081,7 +17976,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -18114,7 +18009,7 @@
       </c>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -18147,7 +18042,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -18155,7 +18050,7 @@
         <v>257</v>
       </c>
       <c r="C187" s="52" t="s">
-        <v>150</v>
+        <v>461</v>
       </c>
       <c r="D187" s="17">
         <v>1</v>
@@ -18169,14 +18064,18 @@
       <c r="G187" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H187" s="50"/>
-      <c r="I187" s="2"/>
+      <c r="H187" s="50">
+        <v>45097</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J187" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -18209,7 +18108,7 @@
       </c>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -18238,7 +18137,7 @@
       </c>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -18267,7 +18166,7 @@
       </c>
       <c r="K190" s="5"/>
     </row>
-    <row r="191" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -18300,7 +18199,7 @@
       </c>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -18333,7 +18232,7 @@
       </c>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -18366,7 +18265,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -18399,7 +18298,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -18432,7 +18331,7 @@
       </c>
       <c r="K195" s="5"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -18465,7 +18364,7 @@
       </c>
       <c r="K196" s="5"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -18498,7 +18397,7 @@
       </c>
       <c r="K197" s="5"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -18531,7 +18430,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -18564,7 +18463,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -18599,7 +18498,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -18632,7 +18531,7 @@
       </c>
       <c r="K201" s="5"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -18665,7 +18564,7 @@
       </c>
       <c r="K202" s="5"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -18698,7 +18597,7 @@
       </c>
       <c r="K203" s="5"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -18731,7 +18630,7 @@
       </c>
       <c r="K204" s="5"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -18764,7 +18663,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -18799,7 +18698,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -18832,7 +18731,7 @@
       </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -18865,7 +18764,7 @@
       </c>
       <c r="K208" s="5"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -18898,7 +18797,7 @@
       </c>
       <c r="K209" s="5"/>
     </row>
-    <row r="210" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -18933,7 +18832,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -18966,7 +18865,7 @@
       </c>
       <c r="K211" s="5"/>
     </row>
-    <row r="212" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -19001,7 +18900,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -19034,7 +18933,7 @@
       </c>
       <c r="K213" s="5"/>
     </row>
-    <row r="214" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -19067,7 +18966,7 @@
       </c>
       <c r="K214" s="5"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -19096,7 +18995,7 @@
       </c>
       <c r="K215" s="5"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -19125,7 +19024,7 @@
       </c>
       <c r="K216" s="5"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -19154,7 +19053,7 @@
       </c>
       <c r="K217" s="5"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -19183,7 +19082,7 @@
       </c>
       <c r="K218" s="5"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -19212,7 +19111,7 @@
       </c>
       <c r="K219" s="5"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -19241,7 +19140,7 @@
       </c>
       <c r="K220" s="5"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -19270,7 +19169,7 @@
       </c>
       <c r="K221" s="5"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -19299,7 +19198,7 @@
       </c>
       <c r="K222" s="5"/>
     </row>
-    <row r="223" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -19328,7 +19227,7 @@
       </c>
       <c r="K223" s="5"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -19357,7 +19256,7 @@
       </c>
       <c r="K224" s="5"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -19386,7 +19285,7 @@
       </c>
       <c r="K225" s="5"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -19415,7 +19314,7 @@
       </c>
       <c r="K226" s="5"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -19444,7 +19343,7 @@
       </c>
       <c r="K227" s="5"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -19473,7 +19372,7 @@
       </c>
       <c r="K228" s="5"/>
     </row>
-    <row r="229" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -19502,7 +19401,7 @@
       </c>
       <c r="K229" s="5"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -19531,7 +19430,7 @@
       </c>
       <c r="K230" s="5"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -19560,7 +19459,7 @@
       </c>
       <c r="K231" s="5"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -19589,7 +19488,7 @@
       </c>
       <c r="K232" s="5"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -19618,7 +19517,7 @@
       </c>
       <c r="K233" s="5"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -19647,7 +19546,7 @@
       </c>
       <c r="K234" s="5"/>
     </row>
-    <row r="235" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -19676,7 +19575,7 @@
       </c>
       <c r="K235" s="5"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -19705,7 +19604,7 @@
       </c>
       <c r="K236" s="5"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -19734,7 +19633,7 @@
       </c>
       <c r="K237" s="5"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -19763,7 +19662,7 @@
       </c>
       <c r="K238" s="5"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -19796,7 +19695,7 @@
       </c>
       <c r="K239" s="5"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -19825,7 +19724,7 @@
       </c>
       <c r="K240" s="5"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -19854,7 +19753,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -19889,7 +19788,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -19920,7 +19819,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -19953,7 +19852,7 @@
       </c>
       <c r="K244" s="5"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -19986,7 +19885,7 @@
       </c>
       <c r="K245" s="5"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -20015,7 +19914,7 @@
       </c>
       <c r="K246" s="5"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -20048,7 +19947,7 @@
       </c>
       <c r="K247" s="5"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -20081,7 +19980,7 @@
       </c>
       <c r="K248" s="5"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -20114,7 +20013,7 @@
       </c>
       <c r="K249" s="5"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -20147,7 +20046,7 @@
       </c>
       <c r="K250" s="5"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -20180,7 +20079,7 @@
       </c>
       <c r="K251" s="5"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -20213,7 +20112,7 @@
       </c>
       <c r="K252" s="5"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -20246,7 +20145,7 @@
       </c>
       <c r="K253" s="5"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
@@ -20279,7 +20178,7 @@
       </c>
       <c r="K254" s="5"/>
     </row>
-    <row r="255" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
@@ -20312,7 +20211,7 @@
       </c>
       <c r="K255" s="5"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
@@ -20345,7 +20244,7 @@
       </c>
       <c r="K256" s="5"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
@@ -20378,7 +20277,7 @@
       </c>
       <c r="K257" s="5"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
@@ -20411,7 +20310,7 @@
       </c>
       <c r="K258" s="5"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
@@ -20440,7 +20339,7 @@
       </c>
       <c r="K259" s="5"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
@@ -20473,7 +20372,7 @@
       </c>
       <c r="K260" s="5"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
@@ -20506,7 +20405,7 @@
       </c>
       <c r="K261" s="5"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
@@ -20539,7 +20438,7 @@
       </c>
       <c r="K262" s="5"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
@@ -20572,7 +20471,7 @@
       </c>
       <c r="K263" s="5"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
@@ -20605,7 +20504,7 @@
       </c>
       <c r="K264" s="5"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
@@ -20638,7 +20537,7 @@
       </c>
       <c r="K265" s="5"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -20671,7 +20570,7 @@
       </c>
       <c r="K266" s="5"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
@@ -20704,7 +20603,7 @@
       </c>
       <c r="K267" s="5"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
@@ -20737,7 +20636,7 @@
       </c>
       <c r="K268" s="5"/>
     </row>
-    <row r="269" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
@@ -20766,7 +20665,7 @@
       </c>
       <c r="K269" s="5"/>
     </row>
-    <row r="270" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
@@ -20799,7 +20698,7 @@
       </c>
       <c r="K270" s="5"/>
     </row>
-    <row r="271" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
@@ -20832,7 +20731,7 @@
       </c>
       <c r="K271" s="5"/>
     </row>
-    <row r="272" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
@@ -20865,7 +20764,7 @@
       </c>
       <c r="K272" s="5"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
@@ -20898,7 +20797,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
@@ -20931,7 +20830,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
@@ -20964,7 +20863,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
@@ -20997,7 +20896,7 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
@@ -21030,7 +20929,7 @@
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
@@ -21063,7 +20962,7 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
@@ -21096,7 +20995,7 @@
       </c>
       <c r="K279" s="5"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
@@ -21129,12 +21028,12 @@
       </c>
       <c r="K280" s="5"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="C281" s="52" t="s">
         <v>148</v>
@@ -21162,12 +21061,12 @@
       </c>
       <c r="K281" s="5"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C282" s="52" t="s">
         <v>148</v>
@@ -21191,12 +21090,12 @@
       </c>
       <c r="K282" s="5"/>
     </row>
-    <row r="283" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C283" s="52" t="s">
         <v>146</v>
@@ -21224,12 +21123,12 @@
       </c>
       <c r="K283" s="5"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C284" s="52" t="s">
         <v>146</v>
@@ -21246,19 +21145,23 @@
       <c r="G284" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H284" s="54"/>
-      <c r="I284" s="2"/>
+      <c r="H284" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J284" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K284" s="5"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C285" s="52" t="s">
         <v>146</v>
@@ -21282,12 +21185,12 @@
       </c>
       <c r="K285" s="5"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C286" s="52" t="s">
         <v>146</v>
@@ -21315,12 +21218,12 @@
       </c>
       <c r="K286" s="5"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C287" s="52" t="s">
         <v>146</v>
@@ -21348,12 +21251,12 @@
       </c>
       <c r="K287" s="5"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C288" s="52" t="s">
         <v>146</v>
@@ -21370,19 +21273,23 @@
       <c r="G288" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H288" s="54"/>
-      <c r="I288" s="2"/>
+      <c r="H288" s="7">
+        <v>45139</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J288" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K288" s="5"/>
     </row>
-    <row r="289" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C289" s="52" t="s">
         <v>146</v>
@@ -21409,15 +21316,15 @@
         <v>41</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C290" s="52" t="s">
         <v>146</v>
@@ -21445,12 +21352,12 @@
       </c>
       <c r="K290" s="5"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C291" s="52" t="s">
         <v>146</v>
@@ -21478,12 +21385,12 @@
       </c>
       <c r="K291" s="5"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C292" s="52" t="s">
         <v>146</v>
@@ -21507,12 +21414,12 @@
       </c>
       <c r="K292" s="5"/>
     </row>
-    <row r="293" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C293" s="52" t="s">
         <v>457</v>
@@ -21536,12 +21443,12 @@
       </c>
       <c r="K293" s="5"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C294" s="52" t="s">
         <v>457</v>
@@ -21570,14 +21477,14 @@
       <c r="K294" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K280"/>
+  <autoFilter ref="A1:K294"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="126" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
+          <x14:cfRule type="containsText" priority="136" operator="containsText" id="{604F6007-5405-4EA5-82BE-9F20A4D18F3E}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J1)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21588,7 +21495,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="127" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
+          <x14:cfRule type="containsText" priority="137" operator="containsText" id="{3B9BBA67-25ED-4757-861A-95700E3073FB}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J1)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21599,7 +21506,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
+          <x14:cfRule type="containsText" priority="138" operator="containsText" id="{4AFEB009-1E4D-4C12-A850-EC36CA7C9ABE}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J1)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21610,7 +21517,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="129" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
+          <x14:cfRule type="containsText" priority="139" operator="containsText" id="{07D5AE2A-829D-46C3-8A6C-DE32DA685FDF}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J1)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21621,7 +21528,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="130" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
+          <x14:cfRule type="containsText" priority="140" operator="containsText" id="{94A18ACF-4A4D-47C7-9BC7-0ED0771C7C1C}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J1)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21632,10 +21539,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J269:J273 J257 J259:J265 J282:J288 J292:J293 J295:J1048576</xm:sqref>
+          <xm:sqref>J1:J58 J192:J238 J60:J61 J63 J66:J76 J78:J178 J186:J190 J240:J255 J269:J273 J257 J259:J265 J282:J283 J292:J293 J295:J1048576 J285:J287</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="121" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
+          <x14:cfRule type="containsText" priority="131" operator="containsText" id="{E79DB846-F466-4E2F-B947-C261CBA8D7FE}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J191)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21646,7 +21553,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{2659F180-45C4-4EEE-A3F0-1022689BB1E9}">
+          <x14:cfRule type="containsText" priority="132" operator="containsText" id="{2659F180-45C4-4EEE-A3F0-1022689BB1E9}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J191)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21657,7 +21564,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{DDDE62F9-7798-47BF-A4BA-D6C32EDFA488}">
+          <x14:cfRule type="containsText" priority="133" operator="containsText" id="{DDDE62F9-7798-47BF-A4BA-D6C32EDFA488}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J191)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21668,7 +21575,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="124" operator="containsText" id="{BF09192F-5432-4607-9692-1F7F86FBB0AD}">
+          <x14:cfRule type="containsText" priority="134" operator="containsText" id="{BF09192F-5432-4607-9692-1F7F86FBB0AD}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J191)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21679,7 +21586,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="125" operator="containsText" id="{545D3F34-0DB8-4592-83E9-8456F5CBFCD4}">
+          <x14:cfRule type="containsText" priority="135" operator="containsText" id="{545D3F34-0DB8-4592-83E9-8456F5CBFCD4}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J191)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21693,7 +21600,7 @@
           <xm:sqref>J191</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="116" operator="containsText" id="{77D5091E-7FC1-44EB-A2E0-A2C9BFE89B0A}">
+          <x14:cfRule type="containsText" priority="126" operator="containsText" id="{77D5091E-7FC1-44EB-A2E0-A2C9BFE89B0A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J239)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21704,7 +21611,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="117" operator="containsText" id="{99C6401E-4A5E-4390-87DF-F2D74820E080}">
+          <x14:cfRule type="containsText" priority="127" operator="containsText" id="{99C6401E-4A5E-4390-87DF-F2D74820E080}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J239)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21715,7 +21622,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="118" operator="containsText" id="{BB681EE2-6955-4730-8D34-88C55623D70B}">
+          <x14:cfRule type="containsText" priority="128" operator="containsText" id="{BB681EE2-6955-4730-8D34-88C55623D70B}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J239)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21726,7 +21633,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="119" operator="containsText" id="{133521A3-AB59-4A23-8F21-29B654806183}">
+          <x14:cfRule type="containsText" priority="129" operator="containsText" id="{133521A3-AB59-4A23-8F21-29B654806183}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J239)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21737,7 +21644,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="120" operator="containsText" id="{9FE4BF21-895B-470B-A846-97AC86996AFC}">
+          <x14:cfRule type="containsText" priority="130" operator="containsText" id="{9FE4BF21-895B-470B-A846-97AC86996AFC}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J239)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21751,7 +21658,7 @@
           <xm:sqref>J239</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="111" operator="containsText" id="{56682B13-B008-4E65-AEDD-5C775178D6B6}">
+          <x14:cfRule type="containsText" priority="121" operator="containsText" id="{56682B13-B008-4E65-AEDD-5C775178D6B6}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J59)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21762,7 +21669,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="112" operator="containsText" id="{5792A322-E44B-4F1E-9B56-5F09EB3D749E}">
+          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{5792A322-E44B-4F1E-9B56-5F09EB3D749E}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J59)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21773,7 +21680,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="113" operator="containsText" id="{04CB1850-99E9-4D72-AD9B-A0E7132E68A7}">
+          <x14:cfRule type="containsText" priority="123" operator="containsText" id="{04CB1850-99E9-4D72-AD9B-A0E7132E68A7}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J59)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21784,7 +21691,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="114" operator="containsText" id="{6B86DADF-E089-4949-B9DC-C2709822F79C}">
+          <x14:cfRule type="containsText" priority="124" operator="containsText" id="{6B86DADF-E089-4949-B9DC-C2709822F79C}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J59)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21795,7 +21702,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="115" operator="containsText" id="{50B16563-F823-4DA9-BC45-5982EA08CE8A}">
+          <x14:cfRule type="containsText" priority="125" operator="containsText" id="{50B16563-F823-4DA9-BC45-5982EA08CE8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J59)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21809,7 +21716,7 @@
           <xm:sqref>J59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{5E97BD53-8796-4FD1-94BE-57B4FCB0997A}">
+          <x14:cfRule type="containsText" priority="116" operator="containsText" id="{5E97BD53-8796-4FD1-94BE-57B4FCB0997A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J62)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21820,7 +21727,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{A55CA617-CC1A-4D9E-90EF-E4E681D55EE4}">
+          <x14:cfRule type="containsText" priority="117" operator="containsText" id="{A55CA617-CC1A-4D9E-90EF-E4E681D55EE4}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J62)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21831,7 +21738,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{9EF76090-9CE4-48C9-9DB9-FFFBE637F20A}">
+          <x14:cfRule type="containsText" priority="118" operator="containsText" id="{9EF76090-9CE4-48C9-9DB9-FFFBE637F20A}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J62)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21842,7 +21749,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{2A7C95FD-5A49-4CAD-940D-2F7A489149EC}">
+          <x14:cfRule type="containsText" priority="119" operator="containsText" id="{2A7C95FD-5A49-4CAD-940D-2F7A489149EC}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J62)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21853,7 +21760,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{B69BB39A-2C4A-4FA4-9F68-88673B44B228}">
+          <x14:cfRule type="containsText" priority="120" operator="containsText" id="{B69BB39A-2C4A-4FA4-9F68-88673B44B228}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J62)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21867,7 +21774,7 @@
           <xm:sqref>J62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{1F2CD909-1699-4AB0-8FC5-F860F0A0CE21}">
+          <x14:cfRule type="containsText" priority="111" operator="containsText" id="{1F2CD909-1699-4AB0-8FC5-F860F0A0CE21}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J64)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21878,7 +21785,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{6485C17D-0D36-49D9-824C-5EED64C68F9B}">
+          <x14:cfRule type="containsText" priority="112" operator="containsText" id="{6485C17D-0D36-49D9-824C-5EED64C68F9B}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J64)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21889,7 +21796,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{95FBE05E-23A8-4EE9-88C3-AB695CBC7932}">
+          <x14:cfRule type="containsText" priority="113" operator="containsText" id="{95FBE05E-23A8-4EE9-88C3-AB695CBC7932}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J64)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21900,7 +21807,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{493B3732-9742-4C46-8E12-796966F4B6C3}">
+          <x14:cfRule type="containsText" priority="114" operator="containsText" id="{493B3732-9742-4C46-8E12-796966F4B6C3}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J64)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21911,7 +21818,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{7DE27319-DCEF-4157-9370-E253A751D383}">
+          <x14:cfRule type="containsText" priority="115" operator="containsText" id="{7DE27319-DCEF-4157-9370-E253A751D383}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J64)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21925,7 +21832,7 @@
           <xm:sqref>J64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{0C3206E5-C963-4F31-8384-8B911C42FB8A}">
+          <x14:cfRule type="containsText" priority="106" operator="containsText" id="{0C3206E5-C963-4F31-8384-8B911C42FB8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J65)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21936,7 +21843,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{B50CA9A6-1591-43DD-BB06-4268802FEC6F}">
+          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{B50CA9A6-1591-43DD-BB06-4268802FEC6F}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J65)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -21947,7 +21854,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{BCA1BE13-582D-428B-B3AD-90FD42542E9C}">
+          <x14:cfRule type="containsText" priority="108" operator="containsText" id="{BCA1BE13-582D-428B-B3AD-90FD42542E9C}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J65)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -21958,7 +21865,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{0AF4353A-EC7F-4094-8E37-6176E6B0D179}">
+          <x14:cfRule type="containsText" priority="109" operator="containsText" id="{0AF4353A-EC7F-4094-8E37-6176E6B0D179}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J65)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -21969,7 +21876,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{FE021F5E-88CF-4884-AE41-4B1DCE49B1DD}">
+          <x14:cfRule type="containsText" priority="110" operator="containsText" id="{FE021F5E-88CF-4884-AE41-4B1DCE49B1DD}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J65)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -21983,7 +21890,7 @@
           <xm:sqref>J65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{72685E7F-5EE0-454C-B3EF-E261AD457F4C}">
+          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{72685E7F-5EE0-454C-B3EF-E261AD457F4C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J77)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -21994,7 +21901,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{B131B030-F95A-4FAD-8F6D-545DCBAE0A83}">
+          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{B131B030-F95A-4FAD-8F6D-545DCBAE0A83}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J77)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22005,7 +21912,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{355C84F0-1C4D-471D-AFF3-810D786A3F1F}">
+          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{355C84F0-1C4D-471D-AFF3-810D786A3F1F}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J77)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22016,7 +21923,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{81554C70-17D8-4253-A252-DF35CC302ECD}">
+          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{81554C70-17D8-4253-A252-DF35CC302ECD}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J77)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22027,7 +21934,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{D533391D-755B-4529-834E-380D2E25F04F}">
+          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{D533391D-755B-4529-834E-380D2E25F04F}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J77)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22041,7 +21948,7 @@
           <xm:sqref>J77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{2C71140D-F7E9-459C-B3F1-6B8CB03BE55C}">
+          <x14:cfRule type="containsText" priority="96" operator="containsText" id="{2C71140D-F7E9-459C-B3F1-6B8CB03BE55C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J179)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22052,7 +21959,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{E2583294-4706-4FA1-A126-EC77C5DB4C8A}">
+          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{E2583294-4706-4FA1-A126-EC77C5DB4C8A}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J179)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22063,7 +21970,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{9E375585-5BAC-4D41-8741-61FE12C5541D}">
+          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{9E375585-5BAC-4D41-8741-61FE12C5541D}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J179)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22074,7 +21981,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{F4FC6566-B687-4E1B-8C42-22BAC7FB1C2B}">
+          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{F4FC6566-B687-4E1B-8C42-22BAC7FB1C2B}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J179)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22085,7 +21992,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="90" operator="containsText" id="{35B02530-6634-4162-8BEE-9FDDD3EA7061}">
+          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{35B02530-6634-4162-8BEE-9FDDD3EA7061}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J179)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22099,7 +22006,7 @@
           <xm:sqref>J179</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{F34F41D6-11E1-4C8D-BB94-E8572EC0A75C}">
+          <x14:cfRule type="containsText" priority="91" operator="containsText" id="{F34F41D6-11E1-4C8D-BB94-E8572EC0A75C}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J180)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22110,7 +22017,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{83ABFEBD-0A12-4E48-98D9-B0CD2E649E4A}">
+          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{83ABFEBD-0A12-4E48-98D9-B0CD2E649E4A}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J180)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22121,7 +22028,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{5FFEE1A2-6ECF-4FC4-8BB3-5798240DA754}">
+          <x14:cfRule type="containsText" priority="93" operator="containsText" id="{5FFEE1A2-6ECF-4FC4-8BB3-5798240DA754}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J180)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22132,7 +22039,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{EE159CF1-9DEF-4207-B551-F147100B6D52}">
+          <x14:cfRule type="containsText" priority="94" operator="containsText" id="{EE159CF1-9DEF-4207-B551-F147100B6D52}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J180)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22143,7 +22050,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{CCD9BA24-426D-41A8-A199-C43A44404057}">
+          <x14:cfRule type="containsText" priority="95" operator="containsText" id="{CCD9BA24-426D-41A8-A199-C43A44404057}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J180)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22157,7 +22064,7 @@
           <xm:sqref>J180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{5A7042A6-ED0B-4607-9775-FCE263A5A0F9}">
+          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{5A7042A6-ED0B-4607-9775-FCE263A5A0F9}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J181)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22168,7 +22075,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{8CC7379D-909F-4862-91FF-CCBCC2BDC772}">
+          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{8CC7379D-909F-4862-91FF-CCBCC2BDC772}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J181)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22179,7 +22086,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{03A89AAE-09A9-41B3-A6F3-07B7DC468ED1}">
+          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{03A89AAE-09A9-41B3-A6F3-07B7DC468ED1}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J181)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22190,7 +22097,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{18BE2F67-3DE1-495D-BC3D-326E43A12DE2}">
+          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{18BE2F67-3DE1-495D-BC3D-326E43A12DE2}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J181)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22201,7 +22108,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{A07D318C-9938-410F-9720-D41B201AAC64}">
+          <x14:cfRule type="containsText" priority="90" operator="containsText" id="{A07D318C-9938-410F-9720-D41B201AAC64}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J181)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22215,7 +22122,7 @@
           <xm:sqref>J181</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{5B1F00FD-41E1-4F52-9014-636E929D2768}">
+          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{5B1F00FD-41E1-4F52-9014-636E929D2768}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J182)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22226,7 +22133,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{F456B488-E815-4983-81D9-EB661E97C31B}">
+          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{F456B488-E815-4983-81D9-EB661E97C31B}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J182)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22237,7 +22144,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{26405982-181D-4FA6-B51E-F578BFC4A177}">
+          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{26405982-181D-4FA6-B51E-F578BFC4A177}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J182)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22248,7 +22155,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{8CA4EA85-1694-4A46-88D1-B93C3E8C9399}">
+          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{8CA4EA85-1694-4A46-88D1-B93C3E8C9399}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J182)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22259,7 +22166,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{26E6FFE5-0973-4E20-A137-3E58F69FA305}">
+          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{26E6FFE5-0973-4E20-A137-3E58F69FA305}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J182)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22273,7 +22180,7 @@
           <xm:sqref>J182</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{2ACDE9A9-BC69-4C3F-ABA3-74A4D70E52A9}">
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{2ACDE9A9-BC69-4C3F-ABA3-74A4D70E52A9}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J183)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22284,7 +22191,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{51177FCF-4E46-44A8-916C-5057BAA2FA87}">
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{51177FCF-4E46-44A8-916C-5057BAA2FA87}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J183)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22295,7 +22202,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{DC092126-EAEA-414E-A872-11B9A9ED4800}">
+          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{DC092126-EAEA-414E-A872-11B9A9ED4800}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J183)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22306,7 +22213,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{333B0107-71C9-4365-85E4-58BD90E906F8}">
+          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{333B0107-71C9-4365-85E4-58BD90E906F8}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J183)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22317,7 +22224,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{FDA14A81-9A1D-46CD-845C-E8C122C88D99}">
+          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{FDA14A81-9A1D-46CD-845C-E8C122C88D99}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J183)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22331,7 +22238,7 @@
           <xm:sqref>J183</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{B40AACCB-FAD1-4F6E-9FF0-A45EA0DFAEAD}">
+          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{B40AACCB-FAD1-4F6E-9FF0-A45EA0DFAEAD}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J184)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22342,7 +22249,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{72EECDE9-65BD-42D8-A950-FFCE02F551E0}">
+          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{72EECDE9-65BD-42D8-A950-FFCE02F551E0}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J184)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22353,7 +22260,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{AFDB935C-813C-4D91-A333-892F316DFDB6}">
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{AFDB935C-813C-4D91-A333-892F316DFDB6}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J184)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22364,7 +22271,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{6287DD57-26DB-4418-8ECF-B1912C432ABB}">
+          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{6287DD57-26DB-4418-8ECF-B1912C432ABB}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J184)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22375,7 +22282,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{20FF4EC4-07B5-4DA9-B61E-1E8C751E7D77}">
+          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{20FF4EC4-07B5-4DA9-B61E-1E8C751E7D77}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J184)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22389,7 +22296,7 @@
           <xm:sqref>J184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{E34B97D3-E2E8-472E-AECD-4AB8AED2E9EB}">
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{E34B97D3-E2E8-472E-AECD-4AB8AED2E9EB}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J185)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22400,7 +22307,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{B5187EF5-CB4E-4731-BEBB-BB92E70E27DA}">
+          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{B5187EF5-CB4E-4731-BEBB-BB92E70E27DA}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J185)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22411,7 +22318,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{29E860D1-A419-485D-853D-0B7F5663B720}">
+          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{29E860D1-A419-485D-853D-0B7F5663B720}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J185)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22422,7 +22329,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{EADD216A-AA60-4057-8BD7-520FA160EF1F}">
+          <x14:cfRule type="containsText" priority="69" operator="containsText" id="{EADD216A-AA60-4057-8BD7-520FA160EF1F}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J185)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22433,7 +22340,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{88E217A4-6370-48D8-B285-459DA339DFCF}">
+          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{88E217A4-6370-48D8-B285-459DA339DFCF}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J185)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22447,7 +22354,7 @@
           <xm:sqref>J185</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{E3E70C7C-E1D7-4E40-8B4F-83A495CB91C1}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{E3E70C7C-E1D7-4E40-8B4F-83A495CB91C1}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J256)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22458,7 +22365,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{3390301F-DCBC-42E2-8000-F9E8A4B5340C}">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{3390301F-DCBC-42E2-8000-F9E8A4B5340C}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J256)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22469,7 +22376,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{17C1CF5E-858D-42DA-8DC8-365510A51D37}">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{17C1CF5E-858D-42DA-8DC8-365510A51D37}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J256)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22480,7 +22387,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{7868AD8A-70F7-4E9B-8842-296F267AD41D}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{7868AD8A-70F7-4E9B-8842-296F267AD41D}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J256)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22491,7 +22398,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{3DE060A9-D3E0-4186-B24F-A8A92119A38B}">
+          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{3DE060A9-D3E0-4186-B24F-A8A92119A38B}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J256)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22505,7 +22412,7 @@
           <xm:sqref>J256</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{4B58FE9F-BD55-4135-A690-F165AD9794FE}">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{4B58FE9F-BD55-4135-A690-F165AD9794FE}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J267)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22516,7 +22423,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{64386027-7875-4801-8C57-8C935259F293}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{64386027-7875-4801-8C57-8C935259F293}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J267)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22527,7 +22434,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{6D30A87E-37FD-4FC0-9F40-A2AECB416A25}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{6D30A87E-37FD-4FC0-9F40-A2AECB416A25}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J267)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22538,7 +22445,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{E5D459BC-E4EF-4533-843F-7EEED35D0540}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{E5D459BC-E4EF-4533-843F-7EEED35D0540}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J267)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22549,7 +22456,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{0A5D5078-7B95-4AB8-BBA5-E67EB3A6BD13}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{0A5D5078-7B95-4AB8-BBA5-E67EB3A6BD13}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J267)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22563,7 +22470,7 @@
           <xm:sqref>J267</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{BFCC58BC-086C-48CE-BAB6-77D138AE7028}">
+          <x14:cfRule type="containsText" priority="51" operator="containsText" id="{BFCC58BC-086C-48CE-BAB6-77D138AE7028}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J268)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22574,7 +22481,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{AD462932-9ED3-4855-AD15-CD7C6A847A49}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{AD462932-9ED3-4855-AD15-CD7C6A847A49}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J268)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22585,7 +22492,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{B07A1A5A-1DA1-4294-800A-B41A04264633}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{B07A1A5A-1DA1-4294-800A-B41A04264633}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J268)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22596,7 +22503,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{2290D466-5BA9-4AC5-A909-E0E5B0F0D0AF}">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{2290D466-5BA9-4AC5-A909-E0E5B0F0D0AF}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J268)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22607,7 +22514,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{80B7E460-5C68-4D5B-BC44-3CAFC5EED5AC}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{80B7E460-5C68-4D5B-BC44-3CAFC5EED5AC}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J268)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22621,7 +22528,7 @@
           <xm:sqref>J268</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{8CEB8848-47EF-455A-A69E-93E7EB8F8044}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{8CEB8848-47EF-455A-A69E-93E7EB8F8044}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J274)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22632,7 +22539,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{38306A60-BC95-409C-AE99-ED407EB72925}">
+          <x14:cfRule type="containsText" priority="42" operator="containsText" id="{38306A60-BC95-409C-AE99-ED407EB72925}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J274)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22643,7 +22550,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{C1E7CC6A-0634-47D0-9147-43BD225BB013}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{C1E7CC6A-0634-47D0-9147-43BD225BB013}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J274)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22654,7 +22561,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{AD7C7C0B-0EC2-4AC5-A3DA-A7BD651A1077}">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{AD7C7C0B-0EC2-4AC5-A3DA-A7BD651A1077}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J274)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22665,7 +22572,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{DAB9052F-7145-452E-9AF8-0ECB95FB1D88}">
+          <x14:cfRule type="containsText" priority="45" operator="containsText" id="{DAB9052F-7145-452E-9AF8-0ECB95FB1D88}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J274)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22679,7 +22586,7 @@
           <xm:sqref>J274:J281</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{D10F93B0-51A1-4595-A962-E4FFA9DB81E3}">
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{D10F93B0-51A1-4595-A962-E4FFA9DB81E3}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J258)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22690,7 +22597,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{174D3576-9014-471E-B7AC-FED08227CF1D}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{174D3576-9014-471E-B7AC-FED08227CF1D}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J258)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22701,7 +22608,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{9E0E7A0C-048D-439E-AF37-F2B494F7F90E}">
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{9E0E7A0C-048D-439E-AF37-F2B494F7F90E}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J258)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22712,7 +22619,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{80D0775E-96C6-416E-8356-7E0A86F93030}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{80D0775E-96C6-416E-8356-7E0A86F93030}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J258)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22723,7 +22630,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{7552F517-6FF5-4256-81ED-EFCB80E72E82}">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{7552F517-6FF5-4256-81ED-EFCB80E72E82}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J258)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22737,7 +22644,7 @@
           <xm:sqref>J258</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{DED53B32-E144-4EF4-924C-C08A5DE3F2D6}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{DED53B32-E144-4EF4-924C-C08A5DE3F2D6}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J266)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22748,7 +22655,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{8AB89D66-20C0-4A41-8E96-09409139C3AB}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{8AB89D66-20C0-4A41-8E96-09409139C3AB}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J266)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22759,7 +22666,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{480F2372-9B95-469C-B38E-DC3A3BD22969}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{480F2372-9B95-469C-B38E-DC3A3BD22969}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J266)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22770,7 +22677,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{D1DCA30B-274F-4D9A-8A7A-E208459D46DA}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{D1DCA30B-274F-4D9A-8A7A-E208459D46DA}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J266)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22781,7 +22688,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{5A030696-30A7-4E44-ADEB-46C02EF07172}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{5A030696-30A7-4E44-ADEB-46C02EF07172}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J266)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22795,7 +22702,7 @@
           <xm:sqref>J266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{4467D124-B263-45B0-AC91-EE4ACEFE85F6}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{4467D124-B263-45B0-AC91-EE4ACEFE85F6}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J289)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22806,7 +22713,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{39C63992-B268-4FF1-9494-662DEE6CFEC6}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{39C63992-B268-4FF1-9494-662DEE6CFEC6}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J289)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22817,7 +22724,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{4A89DADA-7950-4B78-A584-1DEBECD74C92}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{4A89DADA-7950-4B78-A584-1DEBECD74C92}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J289)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22828,7 +22735,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{DD08D371-582D-4E1C-B5B5-8AEF11728CC9}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{DD08D371-582D-4E1C-B5B5-8AEF11728CC9}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J289)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22839,7 +22746,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{44C708BB-15E9-4015-BE29-F78F1E2B76BF}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{44C708BB-15E9-4015-BE29-F78F1E2B76BF}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J289)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22853,7 +22760,7 @@
           <xm:sqref>J289</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{D937FB02-CFA3-478F-9D42-C8483AE56271}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{D937FB02-CFA3-478F-9D42-C8483AE56271}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J290)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22864,7 +22771,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{CC12CB59-35C5-424B-AF4F-549099D308AA}">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{CC12CB59-35C5-424B-AF4F-549099D308AA}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J290)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22875,7 +22782,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{4704C1A1-5C2A-4EFF-A173-02908C2A7257}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{4704C1A1-5C2A-4EFF-A173-02908C2A7257}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J290)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22886,7 +22793,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{04F2B514-0B4E-4CDE-B959-32DD800FCF9D}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{04F2B514-0B4E-4CDE-B959-32DD800FCF9D}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J290)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22897,7 +22804,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{9FE0C3FA-C5BF-44B4-9858-1513569F7BDD}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{9FE0C3FA-C5BF-44B4-9858-1513569F7BDD}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J290)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22911,7 +22818,7 @@
           <xm:sqref>J290</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{70B86FD6-96AB-4006-B5DF-BF4DD6D0C327}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{70B86FD6-96AB-4006-B5DF-BF4DD6D0C327}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J291)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22922,7 +22829,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2FC1CDE6-F267-45A4-82A5-A2950C93C1CC}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{2FC1CDE6-F267-45A4-82A5-A2950C93C1CC}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J291)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22933,7 +22840,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{4D283238-EAB7-4FE9-A367-BD9708925525}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{4D283238-EAB7-4FE9-A367-BD9708925525}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J291)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -22944,7 +22851,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{1CEFB139-C552-42B6-AF32-F2BD539ADE23}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{1CEFB139-C552-42B6-AF32-F2BD539ADE23}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J291)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -22955,7 +22862,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{E7F3DAB5-B3BE-41B2-A7F8-698D0EF81745}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{E7F3DAB5-B3BE-41B2-A7F8-698D0EF81745}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J291)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -22969,7 +22876,7 @@
           <xm:sqref>J291</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FED5DDF9-194E-4A41-BCE1-25A91D36ADFD}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{FED5DDF9-194E-4A41-BCE1-25A91D36ADFD}">
             <xm:f>NOT(ISERROR(SEARCH($J$66,J294)))</xm:f>
             <xm:f>$J$66</xm:f>
             <x14:dxf>
@@ -22980,7 +22887,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2965B957-A623-4392-98E4-D71422475E4C}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{2965B957-A623-4392-98E4-D71422475E4C}">
             <xm:f>NOT(ISERROR(SEARCH($J$50,J294)))</xm:f>
             <xm:f>$J$50</xm:f>
             <x14:dxf>
@@ -22991,7 +22898,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2B9182E3-F4DC-44C1-AA3E-F54AABCE12EF}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{2B9182E3-F4DC-44C1-AA3E-F54AABCE12EF}">
             <xm:f>NOT(ISERROR(SEARCH($J$7,J294)))</xm:f>
             <xm:f>$J$7</xm:f>
             <x14:dxf>
@@ -23002,7 +22909,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{94FB4D79-5463-4E74-868B-B630FA610AAB}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{94FB4D79-5463-4E74-868B-B630FA610AAB}">
             <xm:f>NOT(ISERROR(SEARCH($J$10,J294)))</xm:f>
             <xm:f>$J$10</xm:f>
             <x14:dxf>
@@ -23013,7 +22920,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{1CBE7F39-141B-4E4E-8BE6-49FD257866CB}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{1CBE7F39-141B-4E4E-8BE6-49FD257866CB}">
             <xm:f>NOT(ISERROR(SEARCH($J$2,J294)))</xm:f>
             <xm:f>$J$2</xm:f>
             <x14:dxf>
@@ -23025,6 +22932,122 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>J294</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{86B04CAC-9B14-40F5-8CA2-8660E7558B71}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J288)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{F696D760-5501-49A6-9CD8-7373866FA70D}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J288)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{37692BD4-0158-4E52-9982-2D85B3AF026F}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J288)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{1E177935-7BC6-4EBA-B002-722D00CD8DC8}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J288)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{8047BE28-9FE5-4527-A2B7-9ED456069E1A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J288)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J288</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{DBA121DC-16D0-45E9-8049-2DECE87E9F0C}">
+            <xm:f>NOT(ISERROR(SEARCH($J$66,J284)))</xm:f>
+            <xm:f>$J$66</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{681BD574-2F09-44C5-8DAB-7528003EAFB5}">
+            <xm:f>NOT(ISERROR(SEARCH($J$50,J284)))</xm:f>
+            <xm:f>$J$50</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0070C0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{A7251DFD-EADE-4E42-A135-8657F50F3F14}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,J284)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="4" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{C7409BA8-E25C-4D99-A475-F321FAA3A5A4}">
+            <xm:f>NOT(ISERROR(SEARCH($J$10,J284)))</xm:f>
+            <xm:f>$J$10</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{394D3937-76CC-423F-BB59-CFE4355DCBE3}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,J284)))</xm:f>
+            <xm:f>$J$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J284</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -23040,30 +23063,30 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
@@ -23128,7 +23151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -23187,7 +23210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>128</v>
       </c>
@@ -23207,7 +23230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>129</v>
       </c>
@@ -23215,7 +23238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>120</v>
       </c>
@@ -23233,33 +23256,33 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>291</v>
       </c>
@@ -23267,7 +23290,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>244</v>
       </c>
@@ -23275,7 +23298,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>245</v>
       </c>
@@ -23292,7 +23315,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>41</v>
       </c>
@@ -23309,7 +23332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>44</v>
       </c>
@@ -23324,7 +23347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
@@ -23341,7 +23364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
@@ -23354,7 +23377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>78</v>
       </c>
@@ -23369,7 +23392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>246</v>
       </c>
@@ -23386,7 +23409,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>244</v>
       </c>
@@ -23394,7 +23417,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>245</v>
       </c>
@@ -23432,7 +23455,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>494</v>
       </c>
@@ -23452,7 +23475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>496</v>
       </c>
@@ -23474,7 +23497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>497</v>
       </c>
@@ -23496,7 +23519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>498</v>
       </c>
@@ -23522,7 +23545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>499</v>
       </c>
@@ -23544,7 +23567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>500</v>
       </c>
@@ -23568,7 +23591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>495</v>
       </c>
@@ -23602,7 +23625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>246</v>
       </c>
@@ -23655,24 +23678,24 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>155</v>
       </c>
@@ -23716,7 +23739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>295</v>
       </c>
@@ -23756,7 +23779,7 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>285</v>
       </c>
@@ -23796,7 +23819,7 @@
       <c r="M3" s="24"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>286</v>
       </c>
@@ -23836,7 +23859,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>287</v>
       </c>
@@ -23876,7 +23899,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>288</v>
       </c>
@@ -23916,7 +23939,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>293</v>
       </c>
@@ -23960,7 +23983,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>294</v>
       </c>
@@ -24014,15 +24037,15 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>175</v>
       </c>
@@ -24042,7 +24065,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>181</v>
       </c>
@@ -24065,7 +24088,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>188</v>
       </c>
@@ -24088,7 +24111,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>195</v>
       </c>
@@ -24105,7 +24128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>199</v>
       </c>
@@ -24116,7 +24139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>201</v>
       </c>
@@ -24124,7 +24147,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>202</v>
       </c>
@@ -24132,7 +24155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>203</v>
       </c>
@@ -24140,7 +24163,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>204</v>
       </c>
@@ -24148,7 +24171,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>205</v>
       </c>
@@ -24166,14 +24189,14 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>311</v>
       </c>
@@ -24187,7 +24210,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>314</v>
       </c>
@@ -24198,7 +24221,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>317</v>
       </c>
@@ -24206,7 +24229,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>319</v>
       </c>
@@ -24214,12 +24237,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>322</v>
       </c>
@@ -24227,22 +24250,22 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>311</v>
       </c>
@@ -24253,7 +24276,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>328</v>
       </c>
@@ -24261,22 +24284,22 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>333</v>
       </c>
@@ -24284,17 +24307,17 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>336</v>
       </c>
@@ -24312,18 +24335,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>256</v>
       </c>
@@ -24352,7 +24375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>421</v>
       </c>
@@ -24375,7 +24398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>421</v>
       </c>
@@ -24398,7 +24421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>430</v>
       </c>
@@ -24421,7 +24444,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>430</v>
       </c>
@@ -24444,7 +24467,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>421</v>
       </c>
@@ -24482,7 +24505,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>421</v>
       </c>
@@ -24520,7 +24543,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>430</v>
       </c>
@@ -24561,7 +24584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>430</v>
       </c>
